--- a/daftar_wisata_jawa_timur.xlsx
+++ b/daftar_wisata_jawa_timur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scrapping_Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A5BC3B-9774-4D35-B7BB-603F675D335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBF228-8A74-4E57-AB34-89C4F52A96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
     <sheet name="Daerah" sheetId="3" r:id="rId3"/>
     <sheet name="Wisata (2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="369">
   <si>
     <t>Daftar Tempat Wisata Jawa Timur (Kabupaten &amp; Kota)</t>
   </si>
@@ -1109,6 +1120,27 @@
   </si>
   <si>
     <t>Grogoland</t>
+  </si>
+  <si>
+    <t>Texas Wonocolo (edukasi sumur minyak tradisional)</t>
+  </si>
+  <si>
+    <t>Gofun</t>
+  </si>
+  <si>
+    <t>Pantai Goa Petapa</t>
+  </si>
+  <si>
+    <t>Syaikhona Kholil</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Selesai</t>
+  </si>
+  <si>
+    <t>Progres</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1183,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1166,6 +1198,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1226,16 +1294,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1246,6 +1304,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,15 +1415,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2DE636D1-D325-44B7-B348-323400E7A616}" name="T_WisataJatim6" displayName="T_WisataJatim6" ref="A3:F307">
-  <autoFilter ref="A3:F307" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2DE636D1-D325-44B7-B348-323400E7A616}" name="T_WisataJatim6" displayName="T_WisataJatim6" ref="A3:G295">
+  <autoFilter ref="A3:G295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BC331B6E-2077-4A22-8D90-07484F0816EE}" name="No"/>
     <tableColumn id="2" xr3:uid="{979DA3D3-8B85-462F-B02D-3702105BA49F}" name="Tipe"/>
     <tableColumn id="3" xr3:uid="{34AB2191-D7D6-4791-8DF3-AA1475E56D04}" name="Daerah"/>
     <tableColumn id="4" xr3:uid="{6E8B15D4-47C2-4AE8-9A8E-6A754F6965F0}" name="Tempat Wisata"/>
     <tableColumn id="5" xr3:uid="{07EAB4FA-DC96-430B-B6E4-B902BC2F4D0A}" name="Kategori"/>
     <tableColumn id="6" xr3:uid="{1F1E702A-3925-431F-9191-4D00CB6830C0}" name="Catatan"/>
+    <tableColumn id="7" xr3:uid="{05A3449F-9121-4DA5-A105-2123DD411E27}" name="Jumlah"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1506,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1521,24 +1623,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -8216,10 +8318,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8229,14 +8331,14 @@
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8247,84 +8349,113 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C4" s="15">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="15">
+        <v>6</v>
+      </c>
+      <c r="D5" s="22">
+        <v>2</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="C6" s="15">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="15">
+        <v>8</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="15">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="15">
+        <v>7</v>
+      </c>
+      <c r="D9" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="15">
+        <v>7</v>
+      </c>
+      <c r="D10" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -8334,8 +8465,11 @@
       <c r="C11" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -8345,8 +8479,11 @@
       <c r="C12" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -8356,8 +8493,11 @@
       <c r="C13" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -8367,8 +8507,11 @@
       <c r="C14" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -8378,8 +8521,11 @@
       <c r="C15" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
@@ -8389,8 +8535,11 @@
       <c r="C16" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
@@ -8400,8 +8549,11 @@
       <c r="C17" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
@@ -8411,8 +8563,11 @@
       <c r="C18" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -8422,8 +8577,11 @@
       <c r="C19" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
@@ -8433,8 +8591,11 @@
       <c r="C20" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -8444,8 +8605,11 @@
       <c r="C21" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -8455,8 +8619,11 @@
       <c r="C22" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>8</v>
       </c>
@@ -8466,8 +8633,11 @@
       <c r="C23" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -8477,8 +8647,11 @@
       <c r="C24" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>8</v>
       </c>
@@ -8488,8 +8661,11 @@
       <c r="C25" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
@@ -8499,8 +8675,11 @@
       <c r="C26" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -8510,8 +8689,11 @@
       <c r="C27" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>8</v>
       </c>
@@ -8521,8 +8703,11 @@
       <c r="C28" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>8</v>
       </c>
@@ -8532,8 +8717,11 @@
       <c r="C29" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
@@ -8543,8 +8731,11 @@
       <c r="C30" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>8</v>
       </c>
@@ -8554,8 +8745,11 @@
       <c r="C31" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
@@ -8565,8 +8759,11 @@
       <c r="C32" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>283</v>
       </c>
@@ -8576,8 +8773,11 @@
       <c r="C33" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>283</v>
       </c>
@@ -8587,8 +8787,11 @@
       <c r="C34" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>283</v>
       </c>
@@ -8598,8 +8801,11 @@
       <c r="C35" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>283</v>
       </c>
@@ -8609,8 +8815,11 @@
       <c r="C36" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>283</v>
       </c>
@@ -8620,8 +8829,11 @@
       <c r="C37" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>283</v>
       </c>
@@ -8631,8 +8843,11 @@
       <c r="C38" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>283</v>
       </c>
@@ -8642,8 +8857,11 @@
       <c r="C39" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>283</v>
       </c>
@@ -8653,8 +8871,11 @@
       <c r="C40" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>283</v>
       </c>
@@ -8663,6 +8884,9 @@
       </c>
       <c r="C41" s="10">
         <v>8</v>
+      </c>
+      <c r="D41">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -8678,10 +8902,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A16C813-3DF6-4100-B782-F3C754350D29}">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8694,27 +8918,27 @@
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8733,902 +8957,1029 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
         <v>32</v>
       </c>
-      <c r="E17" s="3" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="F39" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
         <v>36</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>3</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>4</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>5</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>7</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>8</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>2</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>3</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="C40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>6</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="F46" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>7</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>8</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>1</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>4</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>5</v>
-      </c>
       <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>12</v>
@@ -9636,19 +9987,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>12</v>
@@ -9656,19 +10007,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>12</v>
@@ -9676,19 +10027,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>12</v>
@@ -9696,19 +10047,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>12</v>
@@ -9716,19 +10067,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>12</v>
@@ -9736,19 +10087,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>12</v>
@@ -9756,19 +10107,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>12</v>
@@ -9776,19 +10127,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>12</v>
@@ -9796,19 +10147,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>12</v>
@@ -9816,19 +10167,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>12</v>
@@ -9836,19 +10187,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>12</v>
@@ -9856,19 +10207,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>12</v>
@@ -9876,39 +10227,39 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>12</v>
@@ -9916,39 +10267,39 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>12</v>
@@ -9956,19 +10307,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>12</v>
@@ -9976,19 +10327,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>12</v>
@@ -9996,19 +10347,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>12</v>
@@ -10016,19 +10367,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>12</v>
@@ -10036,39 +10387,39 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>12</v>
@@ -10076,19 +10427,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>12</v>
@@ -10096,19 +10447,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>12</v>
@@ -10116,39 +10467,39 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>12</v>
@@ -10156,39 +10507,39 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>12</v>
@@ -10196,19 +10547,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>12</v>
@@ -10216,19 +10567,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>12</v>
@@ -10236,39 +10587,39 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>12</v>
@@ -10276,19 +10627,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>18</v>
@@ -10296,16 +10647,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>14</v>
@@ -10316,19 +10667,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>12</v>
@@ -10336,19 +10687,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>12</v>
@@ -10356,19 +10707,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>12</v>
@@ -10376,19 +10727,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>12</v>
@@ -10396,19 +10747,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>12</v>
@@ -10416,19 +10767,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>12</v>
@@ -10436,39 +10787,39 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>12</v>
@@ -10476,39 +10827,39 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>12</v>
@@ -10516,39 +10867,39 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>12</v>
@@ -10556,19 +10907,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>12</v>
@@ -10576,19 +10927,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>12</v>
@@ -10596,19 +10947,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>12</v>
@@ -10616,19 +10967,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>12</v>
@@ -10636,19 +10987,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>12</v>
@@ -10656,19 +11007,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>12</v>
@@ -10676,39 +11027,39 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>12</v>
@@ -10716,16 +11067,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>14</v>
@@ -10736,19 +11087,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>12</v>
@@ -10756,19 +11107,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>12</v>
@@ -10776,19 +11127,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>12</v>
@@ -10796,19 +11147,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>12</v>
@@ -10816,19 +11167,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>12</v>
@@ -10836,19 +11187,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>12</v>
@@ -10856,19 +11207,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>12</v>
@@ -10876,19 +11227,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>12</v>
@@ -10896,19 +11247,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>12</v>
@@ -10916,19 +11267,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>12</v>
@@ -10936,19 +11287,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>12</v>
@@ -10956,19 +11307,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>12</v>
@@ -10976,19 +11327,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>12</v>
@@ -10996,19 +11347,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>12</v>
@@ -11016,19 +11367,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>12</v>
@@ -11036,19 +11387,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>12</v>
@@ -11056,19 +11407,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>12</v>
@@ -11076,19 +11427,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>12</v>
@@ -11096,19 +11447,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>12</v>
@@ -11116,19 +11467,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>12</v>
@@ -11136,19 +11487,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>12</v>
@@ -11156,19 +11507,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>12</v>
@@ -11176,19 +11527,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>12</v>
@@ -11196,19 +11547,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>12</v>
@@ -11216,19 +11567,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>12</v>
@@ -11236,19 +11587,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>12</v>
@@ -11256,19 +11607,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>12</v>
@@ -11276,19 +11627,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>12</v>
@@ -11296,19 +11647,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>12</v>
@@ -11316,19 +11667,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>12</v>
@@ -11336,19 +11687,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>12</v>
@@ -11356,19 +11707,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>12</v>
@@ -11376,19 +11727,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>12</v>
@@ -11396,19 +11747,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>12</v>
@@ -11416,19 +11767,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>12</v>
@@ -11436,16 +11787,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>14</v>
@@ -11456,19 +11807,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>12</v>
@@ -11476,19 +11827,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>12</v>
@@ -11496,19 +11847,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>12</v>
@@ -11516,39 +11867,39 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>12</v>
@@ -11556,19 +11907,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>12</v>
@@ -11576,19 +11927,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>12</v>
@@ -11596,19 +11947,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>12</v>
@@ -11616,39 +11967,39 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>12</v>
@@ -11656,39 +12007,39 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>12</v>
@@ -11696,19 +12047,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>12</v>
@@ -11716,19 +12067,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>12</v>
@@ -11736,19 +12087,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>12</v>
@@ -11756,39 +12107,39 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>12</v>
@@ -11796,19 +12147,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>12</v>
@@ -11816,19 +12167,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>12</v>
@@ -11836,19 +12187,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>12</v>
@@ -11856,39 +12207,39 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>12</v>
@@ -11896,39 +12247,39 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>12</v>
@@ -11936,19 +12287,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>12</v>
@@ -11956,19 +12307,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>12</v>
@@ -11976,19 +12327,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>12</v>
@@ -11996,16 +12347,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>14</v>
@@ -12016,19 +12367,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>12</v>
@@ -12036,19 +12387,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>12</v>
@@ -12056,16 +12407,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>14</v>
@@ -12076,19 +12427,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>12</v>
@@ -12096,19 +12447,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>12</v>
@@ -12116,19 +12467,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>12</v>
@@ -12136,39 +12487,39 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>12</v>
@@ -12176,19 +12527,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>12</v>
@@ -12196,19 +12547,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>12</v>
@@ -12216,19 +12567,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>12</v>
@@ -12236,19 +12587,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>12</v>
@@ -12256,19 +12607,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>12</v>
@@ -12276,19 +12627,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>12</v>
@@ -12296,19 +12647,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>12</v>
@@ -12316,19 +12667,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>12</v>
@@ -12336,19 +12687,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>12</v>
@@ -12356,16 +12707,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>23</v>
@@ -12376,39 +12727,39 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>12</v>
@@ -12416,19 +12767,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>12</v>
@@ -12436,19 +12787,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>12</v>
@@ -12456,16 +12807,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>17</v>
@@ -12476,19 +12827,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>12</v>
@@ -12496,19 +12847,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>12</v>
@@ -12516,16 +12867,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>23</v>
@@ -12536,19 +12887,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>12</v>
@@ -12556,19 +12907,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>12</v>
@@ -12576,19 +12927,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>12</v>
@@ -12596,16 +12947,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>23</v>
@@ -12616,16 +12967,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>23</v>
@@ -12636,16 +12987,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>23</v>
@@ -12656,19 +13007,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>12</v>
@@ -12676,16 +13027,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>14</v>
@@ -12696,19 +13047,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>12</v>
@@ -12716,19 +13067,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>12</v>
@@ -12736,19 +13087,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>12</v>
@@ -12756,16 +13107,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>23</v>
@@ -12776,19 +13127,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>12</v>
@@ -12796,19 +13147,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>12</v>
@@ -12816,19 +13167,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>12</v>
@@ -12836,19 +13187,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>12</v>
@@ -12856,19 +13207,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>12</v>
@@ -12876,19 +13227,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>12</v>
@@ -12896,19 +13247,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>12</v>
@@ -12916,19 +13267,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>12</v>
@@ -12936,19 +13287,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>12</v>
@@ -12956,19 +13307,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>12</v>
@@ -12976,19 +13327,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>12</v>
@@ -12996,19 +13347,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>12</v>
@@ -13016,19 +13367,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>12</v>
@@ -13036,16 +13387,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>23</v>
@@ -13056,19 +13407,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>12</v>
@@ -13076,19 +13427,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>12</v>
@@ -13096,19 +13447,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>12</v>
@@ -13116,19 +13467,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>12</v>
@@ -13136,19 +13487,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>12</v>
@@ -13156,19 +13507,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>12</v>
@@ -13176,19 +13527,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>12</v>
@@ -13196,19 +13547,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>12</v>
@@ -13216,19 +13567,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>12</v>
@@ -13236,19 +13587,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>12</v>
@@ -13256,19 +13607,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>12</v>
@@ -13276,19 +13627,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>12</v>
@@ -13296,19 +13647,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>12</v>
@@ -13316,19 +13667,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>12</v>
@@ -13336,59 +13687,59 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>12</v>
@@ -13396,19 +13747,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>12</v>
@@ -13416,36 +13767,36 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>53</v>
@@ -13456,19 +13807,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>12</v>
@@ -13476,39 +13827,39 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>12</v>
@@ -13516,19 +13867,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>12</v>
@@ -13536,39 +13887,39 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>12</v>
@@ -13576,19 +13927,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>18</v>
@@ -13596,19 +13947,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>18</v>
@@ -13616,19 +13967,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>12</v>
@@ -13636,39 +13987,39 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>18</v>
@@ -13676,19 +14027,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>12</v>
@@ -13696,119 +14047,119 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>12</v>
@@ -13816,59 +14167,59 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>12</v>
@@ -13876,59 +14227,59 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>12</v>
@@ -13936,59 +14287,59 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>18</v>
@@ -13996,99 +14347,99 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>12</v>
@@ -14096,19 +14447,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>12</v>
@@ -14116,119 +14467,119 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>18</v>
@@ -14236,19 +14587,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>12</v>
@@ -14256,19 +14607,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>18</v>
@@ -14276,79 +14627,79 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>12</v>
@@ -14356,19 +14707,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>18</v>
@@ -14376,19 +14727,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>18</v>
@@ -14396,19 +14747,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>18</v>
@@ -14416,39 +14767,39 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>12</v>
@@ -14456,39 +14807,39 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>12</v>
@@ -14496,39 +14847,39 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>12</v>
@@ -14536,19 +14887,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>12</v>
@@ -14556,261 +14907,21 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="2">
-        <v>5</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="2">
-        <v>6</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F297" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="2">
-        <v>7</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D298" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F298" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="2">
-        <v>8</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E299" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F299" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="2">
-        <v>1</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F300" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="2">
-        <v>2</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F301" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="2">
-        <v>3</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D302" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F302" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="2">
-        <v>4</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D303" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F303" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="2">
-        <v>5</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D304" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F304" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="2">
-        <v>6</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="2">
-        <v>7</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="2">
-        <v>8</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D307" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F307" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/daftar_wisata_jawa_timur.xlsx
+++ b/daftar_wisata_jawa_timur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scrapping_Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBF228-8A74-4E57-AB34-89C4F52A96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08877A6E-AF15-498B-B575-F3E7E2951426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="390">
   <si>
     <t>Daftar Tempat Wisata Jawa Timur (Kabupaten &amp; Kota)</t>
   </si>
@@ -1141,13 +1141,76 @@
   </si>
   <si>
     <t>Progres</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/kTrTr5KT2VFwY4Kp9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/SuxAqzHcnoR47uwJ6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/PAasgrca3KP5MRft6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/DLewFPHA4W4oroAKA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/EikKkNPfVo2yvMaN7</t>
+  </si>
+  <si>
+    <t>Air Terjun Roro Kuning</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/frVNVxmrfX257EKV7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/7LLrBtE1ez8VTvHu7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ugMtSLRV9TicACuc6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/46MtB2LCjpxkJFxKA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/5KEZ9daAkniGmBh79</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/zcXtf7fm3k7dFYkN8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Tm4zNJ6Gk8FztkUC9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/gsMePcXN58F28mVT6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hVe9GudLnTkHkcDp6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/9UjwoLKztF9pegB19</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/NTQwDX6ZNnaeWdX27</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Cw2oQm3E6PkWGVcTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,8 +1245,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,6 +1308,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1262,10 +1357,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1330,6 +1426,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,15 +1448,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1403,21 +1524,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="T_Daerah" displayName="T_Daerah" ref="A3:C41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="T_Daerah" displayName="T_Daerah" ref="A3:C42" totalsRowCount="1">
   <autoFilter ref="A3:C41" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Tipe"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Daerah"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Jumlah Entri di Sheet Wisata"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Jumlah Entri di Sheet Wisata" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(T_Daerah[Jumlah Entri di Sheet Wisata])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2DE636D1-D325-44B7-B348-323400E7A616}" name="T_WisataJatim6" displayName="T_WisataJatim6" ref="A3:G295">
-  <autoFilter ref="A3:G295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2DE636D1-D325-44B7-B348-323400E7A616}" name="T_WisataJatim6" displayName="T_WisataJatim6" ref="A3:H272">
+  <autoFilter ref="A3:H272" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BC331B6E-2077-4A22-8D90-07484F0816EE}" name="No"/>
     <tableColumn id="2" xr3:uid="{979DA3D3-8B85-462F-B02D-3702105BA49F}" name="Tipe"/>
     <tableColumn id="3" xr3:uid="{34AB2191-D7D6-4791-8DF3-AA1475E56D04}" name="Daerah"/>
@@ -1425,6 +1548,7 @@
     <tableColumn id="5" xr3:uid="{07EAB4FA-DC96-430B-B6E4-B902BC2F4D0A}" name="Kategori"/>
     <tableColumn id="6" xr3:uid="{1F1E702A-3925-431F-9191-4D00CB6830C0}" name="Catatan"/>
     <tableColumn id="7" xr3:uid="{05A3449F-9121-4DA5-A105-2123DD411E27}" name="Jumlah"/>
+    <tableColumn id="8" xr3:uid="{232D4C82-5800-4B7A-A793-C99D5142444A}" name="LINK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1608,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1623,24 +1747,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -7758,7 +7882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8318,10 +8444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8332,11 +8458,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -8435,7 +8561,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" s="22">
         <v>6</v>
@@ -8456,132 +8582,132 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="10">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="15">
+        <v>6</v>
+      </c>
+      <c r="D11" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="10">
-        <v>8</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="15">
+        <v>7</v>
+      </c>
+      <c r="D12" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="10">
-        <v>8</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="15">
+        <v>6</v>
+      </c>
+      <c r="D13" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="10">
-        <v>8</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="15">
+        <v>6</v>
+      </c>
+      <c r="D14" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="10">
-        <v>8</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="22">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="10">
-        <v>8</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="15">
+        <v>6</v>
+      </c>
+      <c r="D16" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="10">
-        <v>8</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="15">
+        <v>8</v>
+      </c>
+      <c r="D17" s="22">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="10">
-        <v>8</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="15">
+        <v>6</v>
+      </c>
+      <c r="D18" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="10">
-        <v>8</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="15">
+        <v>6</v>
+      </c>
+      <c r="D19" s="22">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
@@ -8589,13 +8715,13 @@
         <v>165</v>
       </c>
       <c r="C20" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -8609,7 +8735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -8623,7 +8749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>8</v>
       </c>
@@ -8637,7 +8763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -8651,7 +8777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>8</v>
       </c>
@@ -8665,7 +8791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
@@ -8679,7 +8805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -8693,7 +8819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>8</v>
       </c>
@@ -8706,8 +8832,12 @@
       <c r="D28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f>D41-D15</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>8</v>
       </c>
@@ -8721,7 +8851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
@@ -8735,7 +8865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>8</v>
       </c>
@@ -8749,7 +8879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
@@ -8763,7 +8893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>283</v>
       </c>
@@ -8777,7 +8907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>283</v>
       </c>
@@ -8791,7 +8921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>283</v>
       </c>
@@ -8805,7 +8935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>283</v>
       </c>
@@ -8819,7 +8949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>283</v>
       </c>
@@ -8833,7 +8963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>283</v>
       </c>
@@ -8847,7 +8977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>283</v>
       </c>
@@ -8861,7 +8991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>283</v>
       </c>
@@ -8875,7 +9005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>283</v>
       </c>
@@ -8887,6 +9017,22 @@
       </c>
       <c r="D41">
         <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <f>SUM(T_Daerah[Jumlah Entri di Sheet Wisata])</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f>T_Daerah[[#Totals],[Jumlah Entri di Sheet Wisata]]-F45</f>
+        <v>174</v>
+      </c>
+      <c r="F45">
+        <f>SUM(C4:C19)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8902,10 +9048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A16C813-3DF6-4100-B782-F3C754350D29}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="F303" sqref="F303"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8916,29 +9062,30 @@
     <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="8" max="8" width="53.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8960,8 +9107,11 @@
       <c r="G3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8983,8 +9133,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9007,7 +9160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -9030,7 +9183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -9053,7 +9206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -9076,7 +9229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -9099,7 +9252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -9122,7 +9275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -9145,7 +9298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -9168,7 +9321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -9191,7 +9344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -9214,7 +9367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -9237,7 +9390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -9791,7 +9944,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
@@ -9819,16 +9972,16 @@
       <c r="B41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G41">
@@ -9842,16 +9995,16 @@
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G42">
@@ -9865,16 +10018,16 @@
       <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G43">
@@ -9888,16 +10041,16 @@
       <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G44">
@@ -9911,17 +10064,20 @@
       <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>12</v>
+      <c r="F45" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -9931,17 +10087,20 @@
       <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>12</v>
+      <c r="F46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -9951,19 +10110,21 @@
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="32"/>
+      <c r="F47" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>44</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -9972,1314 +10133,1542 @@
       <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>5</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>7</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>8</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="F65" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>1</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="F66" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>2</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="B67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>3</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>4</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="B69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="F69" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>5</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="G70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>6</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F71" s="29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>8</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>2</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>3</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>4</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>5</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>6</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>7</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>8</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="C74" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>4</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="C76" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>1</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>2</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="F78" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>3</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>5</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>6</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="B82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="F82" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>1</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>2</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>3</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>4</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>5</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>7</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="B88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>8</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>8</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="F89" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>1</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>2</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>4</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>1</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="F93" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>6</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>2</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>3</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>4</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>5</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>6</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>7</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>8</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>1</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>2</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>3</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>4</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>5</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>6</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>7</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>8</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F95" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E96" s="3" t="s">
+      <c r="C96" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F96" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96">
+        <v>95</v>
+      </c>
+      <c r="H96" s="36" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C97" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97">
+        <v>96</v>
+      </c>
+      <c r="H97" s="36" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>3</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98">
+        <v>97</v>
+      </c>
+      <c r="H98" s="36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>4</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99">
+        <v>98</v>
+      </c>
+      <c r="H99" s="36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="C100" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>1</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101">
+        <v>101</v>
+      </c>
+      <c r="H101" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>2</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102">
+        <v>102</v>
+      </c>
+      <c r="H102" s="36" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>3</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>103</v>
+      </c>
+      <c r="H103" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>4</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104">
+        <v>104</v>
+      </c>
+      <c r="H104" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>5</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E105" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>105</v>
+      </c>
+      <c r="H105" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>1</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106">
+        <v>106</v>
+      </c>
+      <c r="H106" s="36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>3</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E107" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="F107" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>4</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>5</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>6</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="B110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="F110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>7</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>8</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>1</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>2</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>3</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>4</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>5</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>6</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>7</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="3" t="s">
+      <c r="B111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>8</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>8</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>1</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F112" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>12</v>
@@ -11287,19 +11676,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>12</v>
@@ -11307,19 +11696,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>12</v>
@@ -11327,19 +11716,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>12</v>
@@ -11347,19 +11736,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>12</v>
@@ -11367,19 +11756,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>12</v>
@@ -11387,16 +11776,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>17</v>
@@ -11407,39 +11796,39 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>12</v>
@@ -11447,16 +11836,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>39</v>
@@ -11467,19 +11856,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>12</v>
@@ -11487,16 +11876,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>14</v>
@@ -11507,39 +11896,39 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>12</v>
@@ -11547,39 +11936,39 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>12</v>
@@ -11587,19 +11976,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>12</v>
@@ -11607,19 +11996,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>12</v>
@@ -11627,19 +12016,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>12</v>
@@ -11647,19 +12036,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>12</v>
@@ -11667,19 +12056,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>12</v>
@@ -11687,19 +12076,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>12</v>
@@ -11707,19 +12096,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>12</v>
@@ -11727,19 +12116,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>12</v>
@@ -11747,19 +12136,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>12</v>
@@ -11767,19 +12156,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>12</v>
@@ -11787,16 +12176,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>14</v>
@@ -11807,19 +12196,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>12</v>
@@ -11827,19 +12216,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>12</v>
@@ -11847,19 +12236,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>12</v>
@@ -11867,39 +12256,39 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>12</v>
@@ -11907,19 +12296,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>12</v>
@@ -11927,19 +12316,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>12</v>
@@ -11947,16 +12336,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>14</v>
@@ -11967,39 +12356,39 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>12</v>
@@ -12007,56 +12396,56 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>17</v>
@@ -12067,19 +12456,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>12</v>
@@ -12087,19 +12476,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>12</v>
@@ -12107,19 +12496,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>12</v>
@@ -12127,19 +12516,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>12</v>
@@ -12147,16 +12536,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>17</v>
@@ -12167,19 +12556,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>12</v>
@@ -12187,19 +12576,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>12</v>
@@ -12207,19 +12596,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>12</v>
@@ -12227,19 +12616,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>12</v>
@@ -12247,19 +12636,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>12</v>
@@ -12267,16 +12656,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>23</v>
@@ -12287,19 +12676,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>12</v>
@@ -12307,16 +12696,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>14</v>
@@ -12327,19 +12716,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>12</v>
@@ -12347,19 +12736,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>12</v>
@@ -12367,19 +12756,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>12</v>
@@ -12387,19 +12776,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>12</v>
@@ -12407,19 +12796,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>12</v>
@@ -12427,19 +12816,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>12</v>
@@ -12447,19 +12836,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>12</v>
@@ -12467,19 +12856,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>12</v>
@@ -12487,39 +12876,39 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>12</v>
@@ -12527,19 +12916,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>12</v>
@@ -12547,19 +12936,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>12</v>
@@ -12567,19 +12956,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>12</v>
@@ -12587,19 +12976,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>12</v>
@@ -12607,19 +12996,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>12</v>
@@ -12627,16 +13016,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>23</v>
@@ -12647,19 +13036,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>12</v>
@@ -12667,19 +13056,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>12</v>
@@ -12687,19 +13076,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>12</v>
@@ -12707,19 +13096,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>12</v>
@@ -12727,19 +13116,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>12</v>
@@ -12747,19 +13136,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>12</v>
@@ -12767,19 +13156,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>12</v>
@@ -12787,19 +13176,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>12</v>
@@ -12807,19 +13196,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>12</v>
@@ -12827,19 +13216,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>12</v>
@@ -12847,19 +13236,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>12</v>
@@ -12867,19 +13256,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>12</v>
@@ -12887,19 +13276,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>12</v>
@@ -12907,19 +13296,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>12</v>
@@ -12927,19 +13316,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>12</v>
@@ -12947,16 +13336,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>23</v>
@@ -12967,16 +13356,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>23</v>
@@ -12987,16 +13376,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>23</v>
@@ -13007,19 +13396,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>12</v>
@@ -13027,19 +13416,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>12</v>
@@ -13047,19 +13436,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>12</v>
@@ -13067,19 +13456,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>12</v>
@@ -13087,19 +13476,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>12</v>
@@ -13107,19 +13496,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>12</v>
@@ -13127,19 +13516,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>12</v>
@@ -13147,19 +13536,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>12</v>
@@ -13167,19 +13556,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>12</v>
@@ -13187,19 +13576,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>12</v>
@@ -13207,19 +13596,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>12</v>
@@ -13227,59 +13616,59 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>12</v>
@@ -13287,19 +13676,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>12</v>
@@ -13307,39 +13696,39 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>12</v>
@@ -13347,19 +13736,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>12</v>
@@ -13367,39 +13756,39 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>12</v>
@@ -13407,19 +13796,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>12</v>
@@ -13427,39 +13816,39 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>12</v>
@@ -13467,59 +13856,59 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>12</v>
@@ -13527,59 +13916,59 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>12</v>
@@ -13587,39 +13976,39 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>12</v>
@@ -13627,59 +14016,59 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>12</v>
@@ -13687,59 +14076,59 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>12</v>
@@ -13747,19 +14136,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>12</v>
@@ -13767,39 +14156,39 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>12</v>
@@ -13807,19 +14196,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>12</v>
@@ -13827,119 +14216,119 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>18</v>
@@ -13947,16 +14336,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>192</v>
@@ -13967,19 +14356,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>12</v>
@@ -13987,39 +14376,39 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>18</v>
@@ -14027,36 +14416,36 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>192</v>
@@ -14067,59 +14456,59 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>18</v>
@@ -14127,19 +14516,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>12</v>
@@ -14147,39 +14536,39 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>12</v>
@@ -14187,19 +14576,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>12</v>
@@ -14207,39 +14596,39 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>12</v>
@@ -14247,119 +14636,119 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>12</v>
@@ -14367,79 +14756,79 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>12</v>
@@ -14447,481 +14836,21 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="2">
-        <v>2</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="2">
-        <v>3</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="2">
-        <v>4</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F275" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="2">
-        <v>5</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="2">
-        <v>6</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D277" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F277" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="2">
-        <v>7</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D278" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="2">
-        <v>8</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D279" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F279" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="2">
-        <v>1</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F280" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="2">
-        <v>2</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F281" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="2">
-        <v>3</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F282" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="2">
-        <v>4</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F283" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="2">
-        <v>5</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D284" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F284" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="2">
-        <v>6</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F285" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="2">
-        <v>7</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F286" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="2">
-        <v>8</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D287" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F287" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="2">
-        <v>1</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F288" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="2">
-        <v>2</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D289" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F289" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="2">
-        <v>3</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D290" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F290" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="2">
-        <v>4</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F291" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="2">
-        <v>5</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D292" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="2">
-        <v>6</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F293" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="2">
-        <v>7</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="2">
-        <v>8</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D295" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F295" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14930,9 +14859,23 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H96" r:id="rId1" xr:uid="{2A8A7BCF-085C-4908-9FBE-8463AE0CF53E}"/>
+    <hyperlink ref="H97" r:id="rId2" xr:uid="{700CF09B-A7F3-49E5-B8AF-59A401222060}"/>
+    <hyperlink ref="H98" r:id="rId3" xr:uid="{C51BAE31-7876-42C2-8E0E-DD334D2437E6}"/>
+    <hyperlink ref="H99" r:id="rId4" xr:uid="{C81991F5-326D-4450-8CB3-7850570A4BBB}"/>
+    <hyperlink ref="H100" r:id="rId5" xr:uid="{DA2EA69B-D3B8-4FEE-BDD4-DC7299F46A70}"/>
+    <hyperlink ref="H103" r:id="rId6" xr:uid="{3D451E6F-4148-4565-8B31-2A99ACC2C536}"/>
+    <hyperlink ref="H101" r:id="rId7" xr:uid="{2D010CD0-9FE6-4F67-A648-3F741A23B286}"/>
+    <hyperlink ref="H102" r:id="rId8" xr:uid="{EDFDE1F0-D5FA-4F1F-A02D-8F9A5B528125}"/>
+    <hyperlink ref="H104" r:id="rId9" xr:uid="{700C1C35-1B1D-4F40-966D-B53C53DA98E0}"/>
+    <hyperlink ref="H105" r:id="rId10" xr:uid="{CDAED700-6C56-4CB9-98CA-22451130B910}"/>
+    <hyperlink ref="H106" r:id="rId11" xr:uid="{3329FFD5-549C-4ACD-9538-455C36907CCD}"/>
+    <hyperlink ref="H107" r:id="rId12" xr:uid="{0AA20076-567A-4A35-9D51-95483BC2C5D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/daftar_wisata_jawa_timur.xlsx
+++ b/daftar_wisata_jawa_timur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scrapping_Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08877A6E-AF15-498B-B575-F3E7E2951426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04146B3-AC89-49C3-880E-109258F0B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wisata" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="402">
   <si>
     <t>Daftar Tempat Wisata Jawa Timur (Kabupaten &amp; Kota)</t>
   </si>
@@ -1204,6 +1204,42 @@
   </si>
   <si>
     <t>https://maps.app.goo.gl/Cw2oQm3E6PkWGVcTA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/bFobwh3cpGR6qB3T9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/wrSU5q5nhcY9g52f7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/saua1uF2EdaAg9f99</t>
+  </si>
+  <si>
+    <t>Wisata Teluk Jumiang</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/KRMCzcu1YxiWsE4A7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/va19WsVwvZ8YH5JT9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Y4cmTFB9hZDuXJiK7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/iGySuvspyNo4AiGD9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/yd7khKKt4b42TnpT8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/3BJRvaM3XC1GXUPn9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/rqpvWLvbcuzhLuPX8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/v4YkMgRo7sEPwf319</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1368,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1361,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1438,16 +1480,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1467,6 +1499,24 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1538,8 +1588,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2DE636D1-D325-44B7-B348-323400E7A616}" name="T_WisataJatim6" displayName="T_WisataJatim6" ref="A3:H272">
-  <autoFilter ref="A3:H272" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2DE636D1-D325-44B7-B348-323400E7A616}" name="T_WisataJatim6" displayName="T_WisataJatim6" ref="A3:H267">
+  <autoFilter ref="A3:H267" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BC331B6E-2077-4A22-8D90-07484F0816EE}" name="No"/>
     <tableColumn id="2" xr3:uid="{979DA3D3-8B85-462F-B02D-3702105BA49F}" name="Tipe"/>
@@ -1747,24 +1797,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -8446,8 +8496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8458,11 +8508,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -8708,58 +8758,58 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="10">
-        <v>6</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
+      <c r="D20" s="22">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="10">
-        <v>8</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="15">
+        <v>7</v>
+      </c>
+      <c r="D21" s="22">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="10">
-        <v>8</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="15">
+        <v>4</v>
+      </c>
+      <c r="D22" s="22">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="10">
-        <v>8</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="45">
+        <v>8</v>
+      </c>
+      <c r="D23" s="46">
         <v>20</v>
       </c>
     </row>
@@ -9022,17 +9072,17 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>SUM(T_Daerah[Jumlah Entri di Sheet Wisata])</f>
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E45">
         <f>T_Daerah[[#Totals],[Jumlah Entri di Sheet Wisata]]-F45</f>
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="F45">
-        <f>SUM(C4:C19)</f>
-        <v>100</v>
+        <f>SUM(C4:C22)</f>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -9048,10 +9098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A16C813-3DF6-4100-B782-F3C754350D29}">
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView showGridLines="0" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9066,24 +9116,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -10938,16 +10988,16 @@
       <c r="B83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F83" s="35" t="s">
+      <c r="F83" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G83">
@@ -10961,16 +11011,16 @@
       <c r="B84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F84" s="35" t="s">
+      <c r="F84" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G84">
@@ -10984,16 +11034,16 @@
       <c r="B85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="F85" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G85">
@@ -11007,16 +11057,16 @@
       <c r="B86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F86" s="35" t="s">
+      <c r="F86" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G86">
@@ -11030,16 +11080,16 @@
       <c r="B87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E87" s="34" t="s">
+      <c r="E87" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="35" t="s">
+      <c r="F87" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G87">
@@ -11053,16 +11103,16 @@
       <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="35" t="s">
+      <c r="F88" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G88">
@@ -11076,16 +11126,16 @@
       <c r="B89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E89" s="34" t="s">
+      <c r="E89" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="35" t="s">
+      <c r="F89" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G89">
@@ -11099,16 +11149,16 @@
       <c r="B90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="37" t="s">
+      <c r="E90" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="38" t="s">
+      <c r="F90" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G90">
@@ -11122,16 +11172,16 @@
       <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="37" t="s">
+      <c r="C91" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E91" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F91" s="38" t="s">
+      <c r="F91" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G91">
@@ -11145,16 +11195,16 @@
       <c r="B92" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E92" s="37" t="s">
+      <c r="E92" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F92" s="38" t="s">
+      <c r="F92" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G92">
@@ -11168,16 +11218,16 @@
       <c r="B93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="37" t="s">
+      <c r="C93" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D93" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="37" t="s">
+      <c r="E93" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="38" t="s">
+      <c r="F93" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G93">
@@ -11191,16 +11241,16 @@
       <c r="B94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="37" t="s">
+      <c r="C94" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E94" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="38" t="s">
+      <c r="F94" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G94">
@@ -11214,16 +11264,16 @@
       <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="37" t="s">
+      <c r="C95" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D95" s="38" t="s">
+      <c r="D95" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E95" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="38" t="s">
+      <c r="F95" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G95">
@@ -11252,7 +11302,7 @@
       <c r="G96">
         <v>95</v>
       </c>
-      <c r="H96" s="36" t="s">
+      <c r="H96" s="32" t="s">
         <v>372</v>
       </c>
     </row>
@@ -11278,7 +11328,7 @@
       <c r="G97">
         <v>96</v>
       </c>
-      <c r="H97" s="36" t="s">
+      <c r="H97" s="32" t="s">
         <v>373</v>
       </c>
     </row>
@@ -11304,7 +11354,7 @@
       <c r="G98">
         <v>97</v>
       </c>
-      <c r="H98" s="36" t="s">
+      <c r="H98" s="32" t="s">
         <v>374</v>
       </c>
     </row>
@@ -11330,7 +11380,7 @@
       <c r="G99">
         <v>98</v>
       </c>
-      <c r="H99" s="36" t="s">
+      <c r="H99" s="32" t="s">
         <v>375</v>
       </c>
     </row>
@@ -11356,7 +11406,7 @@
       <c r="G100">
         <v>100</v>
       </c>
-      <c r="H100" s="36" t="s">
+      <c r="H100" s="32" t="s">
         <v>376</v>
       </c>
     </row>
@@ -11367,22 +11417,22 @@
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="39" t="s">
+      <c r="C101" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D101" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="E101" s="39" t="s">
+      <c r="E101" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F101" s="40" t="s">
+      <c r="F101" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G101">
         <v>101</v>
       </c>
-      <c r="H101" s="36" t="s">
+      <c r="H101" s="32" t="s">
         <v>378</v>
       </c>
     </row>
@@ -11393,22 +11443,22 @@
       <c r="B102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="39" t="s">
+      <c r="C102" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D102" s="40" t="s">
+      <c r="D102" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E102" s="39" t="s">
+      <c r="E102" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F102" s="40" t="s">
+      <c r="F102" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G102">
         <v>102</v>
       </c>
-      <c r="H102" s="36" t="s">
+      <c r="H102" s="32" t="s">
         <v>379</v>
       </c>
     </row>
@@ -11419,22 +11469,22 @@
       <c r="B103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D103" s="40" t="s">
+      <c r="D103" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E103" s="39" t="s">
+      <c r="E103" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="40" t="s">
+      <c r="F103" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G103">
         <v>103</v>
       </c>
-      <c r="H103" s="36" t="s">
+      <c r="H103" s="32" t="s">
         <v>380</v>
       </c>
     </row>
@@ -11445,22 +11495,22 @@
       <c r="B104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="39" t="s">
+      <c r="C104" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D104" s="40" t="s">
+      <c r="D104" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="E104" s="39" t="s">
+      <c r="E104" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F104" s="40" t="s">
+      <c r="F104" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G104">
         <v>104</v>
       </c>
-      <c r="H104" s="36" t="s">
+      <c r="H104" s="32" t="s">
         <v>381</v>
       </c>
     </row>
@@ -11471,22 +11521,22 @@
       <c r="B105" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D105" s="40" t="s">
+      <c r="D105" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F105" s="40" t="s">
+      <c r="F105" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G105">
         <v>105</v>
       </c>
-      <c r="H105" s="36" t="s">
+      <c r="H105" s="32" t="s">
         <v>382</v>
       </c>
     </row>
@@ -11512,13 +11562,13 @@
       <c r="G106">
         <v>106</v>
       </c>
-      <c r="H106" s="36" t="s">
+      <c r="H106" s="32" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>8</v>
@@ -11535,288 +11585,352 @@
       <c r="F107" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="36" t="s">
+      <c r="G107">
+        <v>107</v>
+      </c>
+      <c r="H107" s="32" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="F108" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108">
+        <v>108</v>
+      </c>
+      <c r="H108" s="32" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="F109" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109">
+        <v>109</v>
+      </c>
+      <c r="H109" s="32" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="F110" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110">
+        <v>110</v>
+      </c>
+      <c r="H110" s="32" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="F111" s="27"/>
+      <c r="G111">
+        <v>111</v>
+      </c>
+      <c r="H111" s="41" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="F112" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112">
+        <v>112</v>
+      </c>
+      <c r="H112" s="41" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>1</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D113" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113">
+        <v>113</v>
+      </c>
+      <c r="H113" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>2</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D114" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114">
+        <v>114</v>
+      </c>
+      <c r="H114" s="32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>3</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D115" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115">
+        <v>115</v>
+      </c>
+      <c r="H115" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>4</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E116" s="3" t="s">
+      <c r="D116" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116">
+        <v>116</v>
+      </c>
+      <c r="H116" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>1</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="42">
+        <v>117</v>
+      </c>
+      <c r="H117" s="43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>2</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118">
+        <v>118</v>
+      </c>
+      <c r="H118" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>3</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119">
+        <v>119</v>
+      </c>
+      <c r="H119" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>4</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>5</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="F120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120">
+        <v>120</v>
+      </c>
+      <c r="H120" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
         <v>6</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>7</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>8</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>1</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>8</v>
@@ -11825,18 +11939,24 @@
         <v>193</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121">
+        <v>121</v>
+      </c>
+      <c r="H121" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>8</v>
@@ -11845,18 +11965,24 @@
         <v>193</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G122">
+        <v>122</v>
+      </c>
+      <c r="H122" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>8</v>
@@ -11865,7 +11991,7 @@
         <v>193</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>53</v>
@@ -11873,102 +11999,108 @@
       <c r="F123" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123">
+        <v>123</v>
+      </c>
+      <c r="H123" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
+        <v>1</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>2</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>3</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>4</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E124" s="3" t="s">
+      <c r="B127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="F127" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>5</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>6</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="B128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>7</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>8</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>12</v>
@@ -11976,7 +12108,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>8</v>
@@ -11985,7 +12117,7 @@
         <v>202</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>17</v>
@@ -11996,7 +12128,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>8</v>
@@ -12005,10 +12137,10 @@
         <v>202</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>12</v>
@@ -12016,7 +12148,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>8</v>
@@ -12025,10 +12157,10 @@
         <v>202</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>12</v>
@@ -12036,19 +12168,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>12</v>
@@ -12056,19 +12188,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>12</v>
@@ -12076,19 +12208,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>12</v>
@@ -12096,19 +12228,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>12</v>
@@ -12116,19 +12248,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>12</v>
@@ -12136,7 +12268,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>8</v>
@@ -12145,10 +12277,10 @@
         <v>211</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>12</v>
@@ -12156,7 +12288,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>8</v>
@@ -12165,10 +12297,10 @@
         <v>211</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>12</v>
@@ -12176,7 +12308,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>8</v>
@@ -12185,7 +12317,7 @@
         <v>211</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>14</v>
@@ -12196,19 +12328,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>12</v>
@@ -12216,19 +12348,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>12</v>
@@ -12236,16 +12368,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>14</v>
@@ -12256,19 +12388,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>12</v>
@@ -12276,19 +12408,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>12</v>
@@ -12296,7 +12428,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>8</v>
@@ -12305,10 +12437,10 @@
         <v>220</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>12</v>
@@ -12316,7 +12448,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>8</v>
@@ -12325,18 +12457,18 @@
         <v>220</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>8</v>
@@ -12345,10 +12477,10 @@
         <v>220</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>12</v>
@@ -12356,19 +12488,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>12</v>
@@ -12376,19 +12508,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>12</v>
@@ -12396,19 +12528,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>12</v>
@@ -12416,36 +12548,36 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>17</v>
@@ -12456,7 +12588,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>8</v>
@@ -12465,10 +12597,10 @@
         <v>229</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>12</v>
@@ -12476,7 +12608,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>8</v>
@@ -12485,10 +12617,10 @@
         <v>229</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>12</v>
@@ -12496,7 +12628,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>8</v>
@@ -12505,7 +12637,7 @@
         <v>229</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>17</v>
@@ -12516,16 +12648,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>28</v>
@@ -12536,19 +12668,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>12</v>
@@ -12556,16 +12688,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>23</v>
@@ -12576,19 +12708,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>12</v>
@@ -12596,19 +12728,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>12</v>
@@ -12616,7 +12748,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>8</v>
@@ -12625,10 +12757,10 @@
         <v>238</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>12</v>
@@ -12636,7 +12768,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>8</v>
@@ -12645,10 +12777,10 @@
         <v>238</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>12</v>
@@ -12656,7 +12788,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>8</v>
@@ -12665,10 +12797,10 @@
         <v>238</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>12</v>
@@ -12676,19 +12808,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>12</v>
@@ -12696,19 +12828,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>12</v>
@@ -12716,19 +12848,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>12</v>
@@ -12736,19 +12868,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>12</v>
@@ -12756,19 +12888,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>12</v>
@@ -12776,7 +12908,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>8</v>
@@ -12785,10 +12917,10 @@
         <v>247</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>12</v>
@@ -12796,7 +12928,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>8</v>
@@ -12805,7 +12937,7 @@
         <v>247</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>23</v>
@@ -12816,7 +12948,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>8</v>
@@ -12825,10 +12957,10 @@
         <v>247</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>12</v>
@@ -12836,19 +12968,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>12</v>
@@ -12856,19 +12988,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>12</v>
@@ -12876,19 +13008,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>12</v>
@@ -12896,19 +13028,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>12</v>
@@ -12916,16 +13048,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>23</v>
@@ -12936,7 +13068,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>8</v>
@@ -12945,10 +13077,10 @@
         <v>256</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>12</v>
@@ -12956,7 +13088,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>8</v>
@@ -12965,10 +13097,10 @@
         <v>256</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>12</v>
@@ -12976,7 +13108,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>8</v>
@@ -12985,10 +13117,10 @@
         <v>256</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>12</v>
@@ -12996,19 +13128,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>12</v>
@@ -13016,19 +13148,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>12</v>
@@ -13036,19 +13168,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>12</v>
@@ -13056,19 +13188,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>12</v>
@@ -13076,19 +13208,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>12</v>
@@ -13096,7 +13228,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>8</v>
@@ -13105,10 +13237,10 @@
         <v>265</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>12</v>
@@ -13116,7 +13248,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
@@ -13125,10 +13257,10 @@
         <v>265</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>12</v>
@@ -13136,7 +13268,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
@@ -13145,10 +13277,10 @@
         <v>265</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>12</v>
@@ -13156,19 +13288,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>12</v>
@@ -13176,19 +13308,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>12</v>
@@ -13196,19 +13328,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>12</v>
@@ -13216,16 +13348,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>23</v>
@@ -13236,19 +13368,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>12</v>
@@ -13256,7 +13388,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>8</v>
@@ -13265,10 +13397,10 @@
         <v>274</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>12</v>
@@ -13276,7 +13408,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>8</v>
@@ -13285,10 +13417,10 @@
         <v>274</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>12</v>
@@ -13296,7 +13428,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>8</v>
@@ -13305,10 +13437,10 @@
         <v>274</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>12</v>
@@ -13316,19 +13448,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>12</v>
@@ -13336,19 +13468,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>12</v>
@@ -13356,19 +13488,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>12</v>
@@ -13376,19 +13508,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>12</v>
@@ -13396,19 +13528,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>12</v>
@@ -13416,7 +13548,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>283</v>
@@ -13425,10 +13557,10 @@
         <v>284</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>12</v>
@@ -13436,7 +13568,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>283</v>
@@ -13445,10 +13577,10 @@
         <v>284</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>12</v>
@@ -13456,7 +13588,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>283</v>
@@ -13465,7 +13597,7 @@
         <v>284</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>53</v>
@@ -13476,19 +13608,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>12</v>
@@ -13496,19 +13628,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>12</v>
@@ -13516,59 +13648,59 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>12</v>
@@ -13576,7 +13708,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>283</v>
@@ -13585,10 +13717,10 @@
         <v>35</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>12</v>
@@ -13596,7 +13728,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>283</v>
@@ -13605,18 +13737,18 @@
         <v>35</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>283</v>
@@ -13625,70 +13757,70 @@
         <v>35</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>12</v>
@@ -13696,47 +13828,47 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>283</v>
@@ -13745,10 +13877,10 @@
         <v>93</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>12</v>
@@ -13756,7 +13888,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>283</v>
@@ -13765,10 +13897,10 @@
         <v>93</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>18</v>
@@ -13776,7 +13908,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>283</v>
@@ -13785,30 +13917,30 @@
         <v>93</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>12</v>
@@ -13816,16 +13948,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>39</v>
@@ -13836,56 +13968,56 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>192</v>
@@ -13896,7 +14028,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>283</v>
@@ -13905,10 +14037,10 @@
         <v>120</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>12</v>
@@ -13916,7 +14048,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>283</v>
@@ -13925,10 +14057,10 @@
         <v>120</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>18</v>
@@ -13936,7 +14068,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>283</v>
@@ -13945,10 +14077,10 @@
         <v>120</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>18</v>
@@ -13956,19 +14088,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>12</v>
@@ -13976,36 +14108,36 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>53</v>
@@ -14016,47 +14148,47 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>283</v>
@@ -14065,10 +14197,10 @@
         <v>138</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>12</v>
@@ -14076,7 +14208,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>283</v>
@@ -14085,10 +14217,10 @@
         <v>138</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>12</v>
@@ -14096,7 +14228,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>283</v>
@@ -14105,10 +14237,10 @@
         <v>138</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>12</v>
@@ -14116,19 +14248,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>12</v>
@@ -14136,59 +14268,59 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>12</v>
@@ -14196,27 +14328,27 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>283</v>
@@ -14225,18 +14357,18 @@
         <v>147</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>283</v>
@@ -14245,10 +14377,10 @@
         <v>147</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>18</v>
@@ -14256,7 +14388,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>283</v>
@@ -14265,30 +14397,30 @@
         <v>147</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>12</v>
@@ -14296,19 +14428,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>18</v>
@@ -14316,19 +14448,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>18</v>
@@ -14336,16 +14468,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>192</v>
@@ -14356,27 +14488,27 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>283</v>
@@ -14385,10 +14517,10 @@
         <v>193</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>12</v>
@@ -14396,7 +14528,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>283</v>
@@ -14405,7 +14537,7 @@
         <v>193</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>17</v>
@@ -14416,7 +14548,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>283</v>
@@ -14425,30 +14557,30 @@
         <v>193</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>18</v>
@@ -14456,39 +14588,39 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>12</v>
@@ -14496,19 +14628,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>18</v>
@@ -14516,19 +14648,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>12</v>
@@ -14536,7 +14668,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>283</v>
@@ -14545,10 +14677,10 @@
         <v>211</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>18</v>
@@ -14556,7 +14688,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>283</v>
@@ -14565,18 +14697,18 @@
         <v>211</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>283</v>
@@ -14585,50 +14717,50 @@
         <v>211</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>12</v>
@@ -14636,67 +14768,67 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>283</v>
@@ -14705,10 +14837,10 @@
         <v>346</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>12</v>
@@ -14716,7 +14848,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>283</v>
@@ -14725,10 +14857,10 @@
         <v>346</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>12</v>
@@ -14736,7 +14868,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>283</v>
@@ -14745,112 +14877,12 @@
         <v>346</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="2">
-        <v>4</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="2">
-        <v>5</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="2">
-        <v>6</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="2">
-        <v>7</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="2">
-        <v>8</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F272" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14872,10 +14904,20 @@
     <hyperlink ref="H105" r:id="rId10" xr:uid="{CDAED700-6C56-4CB9-98CA-22451130B910}"/>
     <hyperlink ref="H106" r:id="rId11" xr:uid="{3329FFD5-549C-4ACD-9538-455C36907CCD}"/>
     <hyperlink ref="H107" r:id="rId12" xr:uid="{0AA20076-567A-4A35-9D51-95483BC2C5D3}"/>
+    <hyperlink ref="H108" r:id="rId13" xr:uid="{A75F247A-7174-4FBA-AE9B-A85471B5C81A}"/>
+    <hyperlink ref="H109" r:id="rId14" xr:uid="{E74274D7-9130-4A29-97FC-56F69DF788B6}"/>
+    <hyperlink ref="H110" r:id="rId15" xr:uid="{A9D88B73-4E5A-47E4-A5D6-3EAF79A07F9F}"/>
+    <hyperlink ref="H111" r:id="rId16" xr:uid="{D84E87E8-1A64-4B90-B725-CD682E239A28}"/>
+    <hyperlink ref="H112" r:id="rId17" xr:uid="{5D34C229-2323-4817-B668-006524D5C969}"/>
+    <hyperlink ref="H113" r:id="rId18" xr:uid="{C9556165-BD60-4FB2-A2A4-9D621012224F}"/>
+    <hyperlink ref="H114" r:id="rId19" xr:uid="{F2E8050D-510A-425A-B02D-36E59BD8F7A1}"/>
+    <hyperlink ref="H115" r:id="rId20" xr:uid="{FCC483D5-01D1-422F-A0FB-21410DE30952}"/>
+    <hyperlink ref="H116" r:id="rId21" xr:uid="{53ECB144-6A88-4D67-8314-B50600822997}"/>
+    <hyperlink ref="H117" r:id="rId22" xr:uid="{F475101D-32EB-4C2D-BBEE-5BD5856C4E11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/daftar_wisata_jawa_timur.xlsx
+++ b/daftar_wisata_jawa_timur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scrapping_Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04146B3-AC89-49C3-880E-109258F0B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E1B695-D94F-4E22-A6EB-CC5D31779B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wisata" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="459">
   <si>
     <t>Daftar Tempat Wisata Jawa Timur (Kabupaten &amp; Kota)</t>
   </si>
@@ -1116,9 +1116,6 @@
     <t>Daftar Kabupaten &amp; Kota di Jawa Timur</t>
   </si>
   <si>
-    <t>Jumlah Entri di Sheet Wisata</t>
-  </si>
-  <si>
     <t>Grogoland</t>
   </si>
   <si>
@@ -1240,13 +1237,187 @@
   </si>
   <si>
     <t>https://maps.app.goo.gl/v4YkMgRo7sEPwf319</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/DeSuGBdtN6v67cnb9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/tZgKjXjhr4Gokd7F6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/V6Rm7A5dtdhehSbMA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/dwKD2fLQrV1L6aiA8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/7nSi2A2UWy25t7rJ9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/NC71PDmfEM7fyDtC7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/q6KiuPFnA3cgxLZi7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/yg2YBJNjx7ubY4RW8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/rJy7rZBG5F3ndgXM9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/T8H4iMXEwUx6xnuT7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hCdsZem57GFzEPeYA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/WQTEqaGj4YyYL6Er7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/FAXhv37Juz38CYUz9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/k9JhirPbbmm2wMbd6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/jRzLzyaXb619Hq5P9</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/yzbxsZbKjGA2Nzr79</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Aw7aDSGgMYccZMxt7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/VnTmnnhaAfF9AueDA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ousQhHK9kq2pXfZw7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/dh46PKFtJBukJrgt7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/8cMg263gpeXB1dY38</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/LaSziKxS5MarBDMTA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/i4945SftZJBSc7eH9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ipmMyvExamMcsN4Y9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/EtSFpRdvg1zF33tP6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Woap99oeZx9yCvUg7</t>
+  </si>
+  <si>
+    <t>Pantai Bletok</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/NLAm71UNEPUg74sz8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/9JjmNof8PRuwmzHi7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/7jxFzeWJUVF2msyV9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/i1i6WDE1GM69QM7W7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/GhykdaZw1fXfpMEG9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/zVb7ixULyiKAiuXA6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/HCfeGKdEMr6U9Mk59</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/VDUP8rQtktQX8gFT7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/6n1iH9iCFGarFYuG6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/LtLhbjDtGnqsfnLX8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hPwvZHUsb3h1kB1q6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/x2ggxryEmzJKVAdv6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/erF4dS94qALExTDx9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/4dGepdXaVSc2EKyN7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/wGgZdGwfjskeXKA4A</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/kMaQ96qECi4wwywGA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/t8xZnTPdrRvxHbb5A</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/AkDKn4FTRvPsvd7A6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/oefTWV34oywrpFqN8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ucKgAN3RnHTMqcJE8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/1FsdTvfduxQWBPHt7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/399V1H8yK3AaS4FF6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/qNZf39iEUvSZsB8t9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ej1EMfscsLNt8TtB8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hERzjA7VHMaF8nby9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/jK9NLkyKqCgjFFgW7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/eq4XXjhsCFo3mVWT9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/TkMu39nKjb5rgBrB7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/PNzCH7dk4VjZHNxn7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/kJbv3zYd865aYQrj9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,8 +1460,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1370,7 +1555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1439,9 +1642,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1499,24 +1699,47 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1574,23 +1797,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="T_Daerah" displayName="T_Daerah" ref="A3:C42" totalsRowCount="1">
-  <autoFilter ref="A3:C41" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="T_Daerah" displayName="T_Daerah" ref="A3:B42" totalsRowCount="1">
+  <autoFilter ref="A3:B41" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Tipe"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Daerah"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Jumlah Entri di Sheet Wisata" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(T_Daerah[Jumlah Entri di Sheet Wisata])</totalsRowFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2DE636D1-D325-44B7-B348-323400E7A616}" name="T_WisataJatim6" displayName="T_WisataJatim6" ref="A3:H267">
-  <autoFilter ref="A3:H267" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2DE636D1-D325-44B7-B348-323400E7A616}" name="T_WisataJatim6" displayName="T_WisataJatim6" ref="A3:I251">
+  <autoFilter ref="A3:I251" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BC331B6E-2077-4A22-8D90-07484F0816EE}" name="No"/>
     <tableColumn id="2" xr3:uid="{979DA3D3-8B85-462F-B02D-3702105BA49F}" name="Tipe"/>
     <tableColumn id="3" xr3:uid="{34AB2191-D7D6-4791-8DF3-AA1475E56D04}" name="Daerah"/>
@@ -1599,6 +1819,7 @@
     <tableColumn id="6" xr3:uid="{1F1E702A-3925-431F-9191-4D00CB6830C0}" name="Catatan"/>
     <tableColumn id="7" xr3:uid="{05A3449F-9121-4DA5-A105-2123DD411E27}" name="Jumlah"/>
     <tableColumn id="8" xr3:uid="{232D4C82-5800-4B7A-A793-C99D5142444A}" name="LINK"/>
+    <tableColumn id="9" xr3:uid="{1598EBAC-DC62-41F6-A52F-99D1EFDF2228}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1782,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1797,24 +2018,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -7932,8 +8153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C42" sqref="C22:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8494,224 +8715,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15">
-        <v>8</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="15">
-        <v>6</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" s="21">
         <v>2</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="21"/>
+      <c r="H5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="15">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="21">
         <v>3</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+      <c r="H6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="15">
-        <v>8</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="C7" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="15">
-        <v>4</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="15">
-        <v>4</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="C9" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="21">
         <v>7</v>
       </c>
-      <c r="D10" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="15">
-        <v>6</v>
-      </c>
-      <c r="D11" s="22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="15">
-        <v>7</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C12" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="15">
-        <v>6</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="15">
-        <v>6</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="15">
-        <v>6</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C16" s="21">
         <v>13</v>
       </c>
     </row>
@@ -8722,10 +8901,7 @@
       <c r="B17" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="15">
-        <v>8</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="21">
         <v>14</v>
       </c>
     </row>
@@ -8736,10 +8912,7 @@
       <c r="B18" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="15">
-        <v>6</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="21">
         <v>15</v>
       </c>
     </row>
@@ -8750,10 +8923,7 @@
       <c r="B19" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="15">
-        <v>6</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="21">
         <v>16</v>
       </c>
     </row>
@@ -8764,10 +8934,7 @@
       <c r="B20" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="15">
-        <v>5</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C20" s="21">
         <v>17</v>
       </c>
     </row>
@@ -8778,10 +8945,7 @@
       <c r="B21" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="15">
-        <v>7</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="C21" s="21">
         <v>18</v>
       </c>
     </row>
@@ -8792,154 +8956,121 @@
       <c r="B22" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="15">
-        <v>4</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C22" s="21">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="45">
-        <v>8</v>
-      </c>
-      <c r="D23" s="46">
+      <c r="C23" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="10">
-        <v>8</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="21">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="10">
-        <v>8</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="21">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="10">
-        <v>8</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="21">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="10">
-        <v>8</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="21">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C28" s="10">
-        <v>8</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="21">
         <v>25</v>
       </c>
       <c r="H28">
-        <f>D41-D15</f>
+        <f>C41-C27</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="21">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="10">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>26</v>
-      </c>
-    </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="10">
-        <v>8</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="21">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="10">
-        <v>8</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="21">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="10">
-        <v>8</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="52">
         <v>29</v>
       </c>
     </row>
@@ -8950,10 +9081,7 @@
       <c r="B33" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C33" s="10">
-        <v>8</v>
-      </c>
-      <c r="D33">
+      <c r="C33">
         <v>30</v>
       </c>
     </row>
@@ -8964,10 +9092,7 @@
       <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="10">
-        <v>8</v>
-      </c>
-      <c r="D34">
+      <c r="C34">
         <v>31</v>
       </c>
     </row>
@@ -8978,10 +9103,7 @@
       <c r="B35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="10">
-        <v>8</v>
-      </c>
-      <c r="D35">
+      <c r="C35">
         <v>32</v>
       </c>
     </row>
@@ -8992,10 +9114,7 @@
       <c r="B36" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="10">
-        <v>8</v>
-      </c>
-      <c r="D36">
+      <c r="C36">
         <v>33</v>
       </c>
     </row>
@@ -9006,10 +9125,7 @@
       <c r="B37" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="10">
-        <v>8</v>
-      </c>
-      <c r="D37">
+      <c r="C37">
         <v>34</v>
       </c>
     </row>
@@ -9020,10 +9136,7 @@
       <c r="B38" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="10">
-        <v>8</v>
-      </c>
-      <c r="D38">
+      <c r="C38">
         <v>35</v>
       </c>
     </row>
@@ -9034,10 +9147,7 @@
       <c r="B39" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="10">
-        <v>8</v>
-      </c>
-      <c r="D39">
+      <c r="C39">
         <v>36</v>
       </c>
     </row>
@@ -9048,10 +9158,7 @@
       <c r="B40" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="10">
-        <v>8</v>
-      </c>
-      <c r="D40">
+      <c r="C40">
         <v>37</v>
       </c>
     </row>
@@ -9062,27 +9169,14 @@
       <c r="B41" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C41" s="10">
-        <v>8</v>
-      </c>
-      <c r="D41">
+      <c r="C41">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C42">
-        <f>SUM(T_Daerah[Jumlah Entri di Sheet Wisata])</f>
-        <v>268</v>
-      </c>
-    </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E45">
-        <f>T_Daerah[[#Totals],[Jumlah Entri di Sheet Wisata]]-F45</f>
-        <v>152</v>
-      </c>
-      <c r="F45">
-        <f>SUM(C4:C22)</f>
-        <v>116</v>
+      <c r="F45" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -9098,10 +9192,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A16C813-3DF6-4100-B782-F3C754350D29}">
-  <dimension ref="A1:H267"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176:G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9115,27 +9209,27 @@
     <col min="8" max="8" width="53.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9155,13 +9249,16 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="I3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -9184,10 +9281,14 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9209,8 +9310,12 @@
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -9232,8 +9337,12 @@
       <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -9244,7 +9353,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>17</v>
@@ -9255,8 +9364,12 @@
       <c r="G7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -9267,7 +9380,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>20</v>
@@ -9278,8 +9391,12 @@
       <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -9301,8 +9418,12 @@
       <c r="G9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -9324,8 +9445,12 @@
       <c r="G10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -9347,307 +9472,363 @@
       <c r="G11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -9669,8 +9850,12 @@
       <c r="G25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -9681,7 +9866,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>14</v>
@@ -9692,8 +9877,12 @@
       <c r="G26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -9715,8 +9904,12 @@
       <c r="G27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>24</v>
+      </c>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -9738,8 +9931,12 @@
       <c r="G28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -9761,8 +9958,12 @@
       <c r="G29">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -9784,8 +9985,12 @@
       <c r="G30">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -9796,7 +10001,7 @@
         <v>47</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>14</v>
@@ -9807,8 +10012,12 @@
       <c r="G31">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31" s="46"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>8</v>
       </c>
@@ -9819,7 +10028,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>17</v>
@@ -9830,491 +10039,579 @@
       <c r="G32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32" s="46"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G34">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G35">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>33</v>
+      </c>
+      <c r="J36" s="46"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G37">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>34</v>
+      </c>
+      <c r="J37" s="46"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G38">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38" s="46"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G39">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>36</v>
+      </c>
+      <c r="J39" s="46"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G40">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40" s="46"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G41">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>38</v>
+      </c>
+      <c r="J41" s="46"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G42">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>39</v>
+      </c>
+      <c r="J42" s="46"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G43">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43" s="46"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G44">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>41</v>
+      </c>
+      <c r="J44" s="46"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G45">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>42</v>
+      </c>
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G46">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46" s="46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G47">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>44</v>
+      </c>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G48">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>45</v>
+      </c>
+      <c r="J48" s="45"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G49">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>46</v>
+      </c>
+      <c r="J49" s="45"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G50">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>47</v>
+      </c>
+      <c r="J50" s="45"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G51">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>48</v>
+      </c>
+      <c r="J51" s="45"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G52">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>49</v>
+      </c>
+      <c r="J52" s="45"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53" s="45"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -10336,8 +10633,12 @@
       <c r="G54">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>51</v>
+      </c>
+      <c r="J54" s="45"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2</v>
       </c>
@@ -10359,8 +10660,12 @@
       <c r="G55">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>52</v>
+      </c>
+      <c r="J55" s="45"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>3</v>
       </c>
@@ -10382,8 +10687,12 @@
       <c r="G56">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>53</v>
+      </c>
+      <c r="J56" s="45"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>4</v>
       </c>
@@ -10405,8 +10714,12 @@
       <c r="G57">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>54</v>
+      </c>
+      <c r="J57" s="45"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5</v>
       </c>
@@ -10428,8 +10741,12 @@
       <c r="G58">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>55</v>
+      </c>
+      <c r="J58" s="45"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>6</v>
       </c>
@@ -10451,8 +10768,12 @@
       <c r="G59">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>56</v>
+      </c>
+      <c r="J59" s="45"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>7</v>
       </c>
@@ -10474,261 +10795,309 @@
       <c r="G60">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>57</v>
+      </c>
+      <c r="J60" s="45"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G61">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>58</v>
+      </c>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G62">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>59</v>
+      </c>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G63">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>60</v>
+      </c>
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>4</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>61</v>
+      </c>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>5</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>62</v>
+      </c>
+      <c r="J65" s="46"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="28" t="s">
         <v>12</v>
       </c>
       <c r="G66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>63</v>
+      </c>
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="28" t="s">
         <v>12</v>
       </c>
       <c r="G67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>64</v>
+      </c>
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>3</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E68" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="28" t="s">
         <v>12</v>
       </c>
       <c r="G68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>65</v>
+      </c>
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="28" t="s">
         <v>12</v>
       </c>
       <c r="G69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>66</v>
+      </c>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="29" t="s">
-        <v>369</v>
+      <c r="F70" s="28" t="s">
+        <v>368</v>
       </c>
       <c r="G70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>67</v>
+      </c>
+      <c r="J70" s="46"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>6</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F71" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>68</v>
+      </c>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -10750,8 +11119,12 @@
       <c r="G72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>69</v>
+      </c>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -10773,8 +11146,12 @@
       <c r="G73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>70</v>
+      </c>
+      <c r="J73" s="46"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>3</v>
       </c>
@@ -10796,8 +11173,12 @@
       <c r="G74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>71</v>
+      </c>
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>4</v>
       </c>
@@ -10819,8 +11200,12 @@
       <c r="G75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>72</v>
+      </c>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>5</v>
       </c>
@@ -10842,885 +11227,1010 @@
       <c r="G76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>73</v>
+      </c>
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>74</v>
+      </c>
+      <c r="J77" s="46"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F78" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>75</v>
+      </c>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>3</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>76</v>
+      </c>
+      <c r="J79" s="46"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>4</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>77</v>
+      </c>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>5</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>78</v>
+      </c>
+      <c r="J81" s="46"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>6</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F82" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>79</v>
+      </c>
+      <c r="J82" s="46"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="F83" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>80</v>
+      </c>
+      <c r="J83" s="46"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>2</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F84" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>81</v>
+      </c>
+      <c r="J84" s="46"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>3</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>82</v>
+      </c>
+      <c r="J85" s="46"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>4</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>83</v>
+      </c>
+      <c r="J86" s="46"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>5</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>84</v>
+      </c>
+      <c r="J87" s="46"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>85</v>
+      </c>
+      <c r="J88" s="46"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>86</v>
+      </c>
+      <c r="J89" s="46"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="34" t="s">
+      <c r="D90" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="34" t="s">
+      <c r="F90" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D91" s="34" t="s">
+      <c r="D91" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="F91" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>3</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="E92" s="33" t="s">
+      <c r="E92" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F92" s="34" t="s">
+      <c r="F92" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>4</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C93" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D93" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="34" t="s">
+      <c r="F93" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>5</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="33" t="s">
+      <c r="C94" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E94" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="34" t="s">
+      <c r="F94" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>6</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D95" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E95" s="33" t="s">
+      <c r="E95" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="34" t="s">
+      <c r="F95" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G96">
         <v>95</v>
       </c>
-      <c r="H96" s="32" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H96" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="I96">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G97">
         <v>96</v>
       </c>
-      <c r="H97" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H97" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="I97">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>3</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G98">
         <v>97</v>
       </c>
-      <c r="H98" s="32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H98" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="I98">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>4</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G99">
         <v>98</v>
       </c>
-      <c r="H99" s="32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H99" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="I99">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="E100" s="16" t="s">
+      <c r="D100" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="E100" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F100" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G100">
         <v>100</v>
       </c>
-      <c r="H100" s="32" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H100" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="I100">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>1</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="36" t="s">
+      <c r="D101" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F101" s="36" t="s">
+      <c r="F101" s="35" t="s">
         <v>12</v>
       </c>
       <c r="G101">
         <v>101</v>
       </c>
-      <c r="H101" s="32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H101" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I101">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>2</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D102" s="36" t="s">
+      <c r="D102" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E102" s="35" t="s">
+      <c r="E102" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F102" s="36" t="s">
+      <c r="F102" s="35" t="s">
         <v>12</v>
       </c>
       <c r="G102">
         <v>102</v>
       </c>
-      <c r="H102" s="32" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H102" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="I102">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D103" s="36" t="s">
+      <c r="D103" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="36" t="s">
+      <c r="F103" s="35" t="s">
         <v>12</v>
       </c>
       <c r="G103">
         <v>103</v>
       </c>
-      <c r="H103" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H103" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>4</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E104" s="35" t="s">
+      <c r="E104" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F104" s="36" t="s">
+      <c r="F104" s="35" t="s">
         <v>12</v>
       </c>
       <c r="G104">
         <v>104</v>
       </c>
-      <c r="H104" s="32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H104" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="I104">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>5</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="D105" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E105" s="35" t="s">
+      <c r="E105" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F105" s="36" t="s">
+      <c r="F105" s="35" t="s">
         <v>12</v>
       </c>
       <c r="G105">
         <v>105</v>
       </c>
-      <c r="H105" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="I105">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>1</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D106" s="27" t="s">
+      <c r="D106" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G106">
         <v>106</v>
       </c>
-      <c r="H106" s="32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="I106">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>2</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="27" t="s">
+      <c r="F107" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G107">
         <v>107</v>
       </c>
-      <c r="H107" s="32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="I107">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>3</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F108" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G108">
         <v>108</v>
       </c>
-      <c r="H108" s="32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="I108">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D109" s="27" t="s">
+      <c r="D109" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="27" t="s">
+      <c r="F109" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G109">
         <v>109</v>
       </c>
-      <c r="H109" s="32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H109" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="I109">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>5</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D110" s="27" t="s">
+      <c r="D110" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F110" s="27" t="s">
+      <c r="F110" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G110">
         <v>110</v>
       </c>
-      <c r="H110" s="32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H110" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="I110">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>6</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="D111" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F111" s="27"/>
+      <c r="F111" s="26"/>
       <c r="G111">
         <v>111</v>
       </c>
-      <c r="H111" s="41" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H111" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="I111">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>7</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="26" t="s">
+      <c r="C112" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D112" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E112" s="26" t="s">
+      <c r="E112" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="F112" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G112">
         <v>112</v>
       </c>
-      <c r="H112" s="41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H112" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="I112">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -11742,11 +12252,14 @@
       <c r="G113">
         <v>113</v>
       </c>
-      <c r="H113" s="32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H113" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="I113">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>2</v>
       </c>
@@ -11768,11 +12281,14 @@
       <c r="G114">
         <v>114</v>
       </c>
-      <c r="H114" s="32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="I114">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>3</v>
       </c>
@@ -11794,11 +12310,14 @@
       <c r="G115">
         <v>115</v>
       </c>
-      <c r="H115" s="32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H115" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="I115">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>4</v>
       </c>
@@ -11809,7 +12328,7 @@
         <v>183</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>192</v>
@@ -11820,1233 +12339,1725 @@
       <c r="G116">
         <v>116</v>
       </c>
-      <c r="H116" s="32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H116" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="I116">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>1</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F117" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="42">
+      <c r="F117" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117">
         <v>117</v>
       </c>
-      <c r="H117" s="43" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H117" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I117">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>2</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G118">
         <v>118</v>
       </c>
-      <c r="H118" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="I118">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G119">
         <v>119</v>
       </c>
-      <c r="H119" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H119" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="I119">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G120">
         <v>120</v>
       </c>
-      <c r="H120" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H120" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="I120">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G121">
         <v>121</v>
       </c>
-      <c r="H121" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H121" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="I121">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G122">
         <v>122</v>
       </c>
-      <c r="H122" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="I122">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G123">
         <v>123</v>
       </c>
-      <c r="H123" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="I123">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>1</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D124" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124">
+        <v>124</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="I124">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>2</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D125" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E125" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125">
+        <v>125</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="I125">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>3</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D126" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E126" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126">
+        <v>126</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="I126">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>4</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D127" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E127" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127">
+        <v>127</v>
+      </c>
+      <c r="H127" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="I127">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>5</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E128" s="3" t="s">
+      <c r="D128" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E128" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128">
+        <v>128</v>
+      </c>
+      <c r="H128" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="I128">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
+        <v>1</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129">
+        <v>129</v>
+      </c>
+      <c r="H129" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="I129">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>2</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130">
+        <v>130</v>
+      </c>
+      <c r="H130" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="I130">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>3</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131">
+        <v>131</v>
+      </c>
+      <c r="H131" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="I131">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>4</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132">
+        <v>132</v>
+      </c>
+      <c r="H132" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="I132">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>5</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133">
+        <v>133</v>
+      </c>
+      <c r="H133" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="I133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>1</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134">
+        <v>134</v>
+      </c>
+      <c r="H134" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="I134">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>2</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135">
+        <v>135</v>
+      </c>
+      <c r="H135" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="I135">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>3</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E136" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136">
+        <v>136</v>
+      </c>
+      <c r="H136" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="I136">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>4</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="E137" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F137" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137">
+        <v>137</v>
+      </c>
+      <c r="H137" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="I137">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>5</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138">
+        <v>138</v>
+      </c>
+      <c r="H138" t="s">
+        <v>415</v>
+      </c>
+      <c r="I138">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>1</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D139" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E139" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F139" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139">
+        <v>139</v>
+      </c>
+      <c r="H139" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I139">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>2</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D140" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E140" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140">
+        <v>140</v>
+      </c>
+      <c r="H140" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="I140">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>3</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D141" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="E141" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141">
+        <v>141</v>
+      </c>
+      <c r="H141" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="I141">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>4</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D142" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E142" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142">
+        <v>142</v>
+      </c>
+      <c r="H142" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="I142">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>5</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D143" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="E143" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143">
+        <v>143</v>
+      </c>
+      <c r="H143" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="I143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
         <v>6</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E129" s="3" t="s">
+      <c r="B144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D144" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="E144" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144">
+        <v>144</v>
+      </c>
+      <c r="H144" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="I144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>7</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D145" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E145" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="F145" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145">
+        <v>145</v>
+      </c>
+      <c r="H145" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="I145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>1</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E146" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146">
+        <v>146</v>
+      </c>
+      <c r="H146" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="I146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>2</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D147" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E147" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147">
+        <v>147</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="I147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>3</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D148" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="E148" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148">
+        <v>148</v>
+      </c>
+      <c r="H148" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="I148">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>4</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D149" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="E149" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149">
+        <v>149</v>
+      </c>
+      <c r="H149" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="I149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D150" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="E150" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150">
+        <v>150</v>
+      </c>
+      <c r="H150" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="I150">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>1</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151">
+        <v>151</v>
+      </c>
+      <c r="H151" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="I151">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>2</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152">
+        <v>152</v>
+      </c>
+      <c r="H152" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="I152">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>3</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F153" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153">
+        <v>153</v>
+      </c>
+      <c r="H153" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="I153">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>4</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154">
+        <v>154</v>
+      </c>
+      <c r="H154" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="I154">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>5</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155">
+        <v>155</v>
+      </c>
+      <c r="H155" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="I155">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>6</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156">
+        <v>156</v>
+      </c>
+      <c r="H156" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="I156">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
         <v>7</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E130" s="3" t="s">
+      <c r="B157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157">
+        <v>157</v>
+      </c>
+      <c r="H157" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="I157">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>1</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158">
+        <v>158</v>
+      </c>
+      <c r="H158" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="I158">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>2</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E159" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>8</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E131" s="3" t="s">
+      <c r="F159" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159">
+        <v>159</v>
+      </c>
+      <c r="H159" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="I159">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>3</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160">
+        <v>160</v>
+      </c>
+      <c r="H160" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="I160">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>4</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161">
+        <v>161</v>
+      </c>
+      <c r="H161" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="I161">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>5</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162">
+        <v>162</v>
+      </c>
+      <c r="H162" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="I162">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>6</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163">
+        <v>163</v>
+      </c>
+      <c r="H163" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="I163">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>7</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164">
+        <v>164</v>
+      </c>
+      <c r="H164" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="I164">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>8</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165">
+        <v>165</v>
+      </c>
+      <c r="H165" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="I165">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>1</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D166" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E166" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F166" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166">
+        <v>166</v>
+      </c>
+      <c r="H166" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="I166">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>2</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D167" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="E167" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F167" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167">
+        <v>167</v>
+      </c>
+      <c r="H167" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="I167">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>3</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D168" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E168" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
-        <v>1</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>2</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
-        <v>3</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="F168" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168">
+        <v>168</v>
+      </c>
+      <c r="H168" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="I168">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
         <v>4</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E135" s="3" t="s">
+      <c r="B169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D169" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E169" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169">
+        <v>169</v>
+      </c>
+      <c r="H169" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="I169">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>5</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D170" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E170" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
-        <v>5</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="F170" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170">
+        <v>170</v>
+      </c>
+      <c r="H170" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="I170">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
         <v>6</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
-        <v>7</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E138" s="3" t="s">
+      <c r="B171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D171" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="E171" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
-        <v>8</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
-        <v>1</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
-        <v>2</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
-        <v>3</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
-        <v>4</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
-        <v>5</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
-        <v>6</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
-        <v>7</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
-        <v>8</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
-        <v>1</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
-        <v>2</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
-        <v>3</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
-        <v>4</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
-        <v>5</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
-        <v>6</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
-        <v>7</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
-        <v>8</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
-        <v>1</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
-        <v>2</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
-        <v>3</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
-        <v>4</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
-        <v>5</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
-        <v>6</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
-        <v>7</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
-        <v>8</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
-        <v>1</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
-        <v>2</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
-        <v>3</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
-        <v>4</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
-        <v>5</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
-        <v>6</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
-        <v>7</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
-        <v>8</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F171" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171">
+        <v>171</v>
+      </c>
+      <c r="H171" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="I171">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>1</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E172" s="3" t="s">
+      <c r="C172" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E172" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F172" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F172" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172">
+        <v>172</v>
+      </c>
+      <c r="H172" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="I172">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>2</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E173" s="3" t="s">
+      <c r="C173" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E173" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F173" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F173" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173">
+        <v>173</v>
+      </c>
+      <c r="H173" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="I173">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>3</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E174" s="3" t="s">
+      <c r="C174" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E174" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F174" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174">
+        <v>174</v>
+      </c>
+      <c r="H174" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="I174">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>4</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C175" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175">
+        <v>175</v>
+      </c>
+      <c r="H175" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="I175">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>5</v>
       </c>
@@ -13054,10 +14065,10 @@
         <v>8</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>23</v>
@@ -13065,8 +14076,17 @@
       <c r="F176" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176">
+        <v>176</v>
+      </c>
+      <c r="H176" t="s">
+        <v>455</v>
+      </c>
+      <c r="I176">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>6</v>
       </c>
@@ -13074,10 +14094,10 @@
         <v>8</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>23</v>
@@ -13085,8 +14105,17 @@
       <c r="F177" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177">
+        <v>177</v>
+      </c>
+      <c r="H177" t="s">
+        <v>456</v>
+      </c>
+      <c r="I177">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>7</v>
       </c>
@@ -13094,10 +14123,10 @@
         <v>8</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>23</v>
@@ -13105,8 +14134,17 @@
       <c r="F178" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178">
+        <v>178</v>
+      </c>
+      <c r="H178" t="s">
+        <v>457</v>
+      </c>
+      <c r="I178">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>8</v>
       </c>
@@ -13114,339 +14152,396 @@
         <v>8</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179">
+        <v>179</v>
+      </c>
+      <c r="H179" t="s">
+        <v>458</v>
+      </c>
+      <c r="I179">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>1</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>2</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>3</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>4</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>5</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>6</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>7</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>8</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>1</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>2</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>3</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I190">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>4</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I191">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>6</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>7</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I194">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>8</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I195">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -13454,19 +14549,22 @@
         <v>283</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I196">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>2</v>
       </c>
@@ -13474,19 +14572,22 @@
         <v>283</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I197">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>3</v>
       </c>
@@ -13494,19 +14595,22 @@
         <v>283</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I198">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>4</v>
       </c>
@@ -13514,19 +14618,22 @@
         <v>283</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I199">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>5</v>
       </c>
@@ -13534,19 +14641,22 @@
         <v>283</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I200">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>6</v>
       </c>
@@ -13554,19 +14664,22 @@
         <v>283</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I201">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>7</v>
       </c>
@@ -13574,19 +14687,22 @@
         <v>283</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I202">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>8</v>
       </c>
@@ -13594,19 +14710,22 @@
         <v>283</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I203">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>1</v>
       </c>
@@ -13614,10 +14733,10 @@
         <v>283</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>11</v>
@@ -13625,8 +14744,11 @@
       <c r="F204" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I204">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>2</v>
       </c>
@@ -13634,19 +14756,22 @@
         <v>283</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I205">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>3</v>
       </c>
@@ -13654,19 +14779,22 @@
         <v>283</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I206">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>4</v>
       </c>
@@ -13674,19 +14802,22 @@
         <v>283</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I207">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>5</v>
       </c>
@@ -13694,19 +14825,22 @@
         <v>283</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I208">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>6</v>
       </c>
@@ -13714,19 +14848,22 @@
         <v>283</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I209">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>7</v>
       </c>
@@ -13734,19 +14871,22 @@
         <v>283</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I210">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>8</v>
       </c>
@@ -13754,19 +14894,22 @@
         <v>283</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I211">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>1</v>
       </c>
@@ -13774,10 +14917,10 @@
         <v>283</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>11</v>
@@ -13785,8 +14928,11 @@
       <c r="F212" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I212">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>2</v>
       </c>
@@ -13794,19 +14940,22 @@
         <v>283</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I213">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>3</v>
       </c>
@@ -13814,19 +14963,22 @@
         <v>283</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I214">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>4</v>
       </c>
@@ -13834,19 +14986,22 @@
         <v>283</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I215">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>5</v>
       </c>
@@ -13854,19 +15009,22 @@
         <v>283</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I216">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>6</v>
       </c>
@@ -13874,19 +15032,22 @@
         <v>283</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I217">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>7</v>
       </c>
@@ -13894,19 +15055,22 @@
         <v>283</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I218">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>8</v>
       </c>
@@ -13914,19 +15078,22 @@
         <v>283</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I219">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>1</v>
       </c>
@@ -13934,10 +15101,10 @@
         <v>283</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>11</v>
@@ -13945,8 +15112,11 @@
       <c r="F220" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I220">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>2</v>
       </c>
@@ -13954,19 +15124,22 @@
         <v>283</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I221">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>3</v>
       </c>
@@ -13974,19 +15147,22 @@
         <v>283</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I222">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>4</v>
       </c>
@@ -13994,19 +15170,22 @@
         <v>283</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I223">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>5</v>
       </c>
@@ -14014,10 +15193,10 @@
         <v>283</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>192</v>
@@ -14025,8 +15204,11 @@
       <c r="F224" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I224">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>6</v>
       </c>
@@ -14034,19 +15216,22 @@
         <v>283</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I225">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>7</v>
       </c>
@@ -14054,19 +15239,22 @@
         <v>283</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I226">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>8</v>
       </c>
@@ -14074,19 +15262,22 @@
         <v>283</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I227">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>1</v>
       </c>
@@ -14094,10 +15285,10 @@
         <v>283</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>11</v>
@@ -14105,8 +15296,11 @@
       <c r="F228" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I228">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>2</v>
       </c>
@@ -14114,19 +15308,22 @@
         <v>283</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I229">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>3</v>
       </c>
@@ -14134,19 +15331,22 @@
         <v>283</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I230">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>4</v>
       </c>
@@ -14154,19 +15354,22 @@
         <v>283</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I231">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>5</v>
       </c>
@@ -14174,19 +15377,22 @@
         <v>283</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I232">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>6</v>
       </c>
@@ -14194,19 +15400,22 @@
         <v>283</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I233">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>7</v>
       </c>
@@ -14214,19 +15423,22 @@
         <v>283</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I234">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>8</v>
       </c>
@@ -14234,19 +15446,22 @@
         <v>283</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I235">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>1</v>
       </c>
@@ -14254,19 +15469,22 @@
         <v>283</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I236">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>2</v>
       </c>
@@ -14274,19 +15492,22 @@
         <v>283</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I237">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>3</v>
       </c>
@@ -14294,19 +15515,22 @@
         <v>283</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I238">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>4</v>
       </c>
@@ -14314,19 +15538,22 @@
         <v>283</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I239">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>5</v>
       </c>
@@ -14334,19 +15561,22 @@
         <v>283</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I240">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>6</v>
       </c>
@@ -14354,19 +15584,22 @@
         <v>283</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I241">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>7</v>
       </c>
@@ -14374,19 +15607,22 @@
         <v>283</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I242">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>8</v>
       </c>
@@ -14394,19 +15630,22 @@
         <v>283</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I243">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>1</v>
       </c>
@@ -14414,19 +15653,22 @@
         <v>283</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I244">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>2</v>
       </c>
@@ -14434,19 +15676,22 @@
         <v>283</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I245">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>3</v>
       </c>
@@ -14454,19 +15699,22 @@
         <v>283</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I246">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>4</v>
       </c>
@@ -14474,19 +15722,22 @@
         <v>283</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I247">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>5</v>
       </c>
@@ -14494,19 +15745,22 @@
         <v>283</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I248">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>6</v>
       </c>
@@ -14514,19 +15768,22 @@
         <v>283</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I249">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>7</v>
       </c>
@@ -14534,362 +15791,62 @@
         <v>283</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="E250" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I250">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>8</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E251" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F250" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="2">
-        <v>8</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="F251" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="2">
-        <v>1</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="2">
-        <v>2</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="2">
-        <v>3</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F254" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="2">
-        <v>4</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="2">
-        <v>5</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="2">
-        <v>6</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="2">
-        <v>7</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F258" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="2">
-        <v>8</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="2">
-        <v>1</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="2">
-        <v>2</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="2">
-        <v>3</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F262" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="2">
-        <v>4</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="2">
-        <v>5</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="2">
-        <v>6</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="2">
-        <v>7</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F266" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="2">
-        <v>8</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>12</v>
+      <c r="I251">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="16">
+    <mergeCell ref="J83:J89"/>
+    <mergeCell ref="J54:J60"/>
+    <mergeCell ref="J61:J65"/>
+    <mergeCell ref="J66:J71"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="J48:J53"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="J18:J24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H96" r:id="rId1" xr:uid="{2A8A7BCF-085C-4908-9FBE-8463AE0CF53E}"/>
@@ -14913,11 +15870,68 @@
     <hyperlink ref="H114" r:id="rId19" xr:uid="{F2E8050D-510A-425A-B02D-36E59BD8F7A1}"/>
     <hyperlink ref="H115" r:id="rId20" xr:uid="{FCC483D5-01D1-422F-A0FB-21410DE30952}"/>
     <hyperlink ref="H116" r:id="rId21" xr:uid="{53ECB144-6A88-4D67-8314-B50600822997}"/>
-    <hyperlink ref="H117" r:id="rId22" xr:uid="{F475101D-32EB-4C2D-BBEE-5BD5856C4E11}"/>
+    <hyperlink ref="H117" r:id="rId22" xr:uid="{DC7115F6-FE55-4A9D-B4B1-D8891355167D}"/>
+    <hyperlink ref="H118" r:id="rId23" xr:uid="{7CB12273-C5C1-4F71-9196-4A229F61B0D8}"/>
+    <hyperlink ref="H119" r:id="rId24" xr:uid="{9FF280B3-F2E4-49E4-8A76-BAAAE6D2FD47}"/>
+    <hyperlink ref="H120" r:id="rId25" xr:uid="{B4444538-68B9-4225-A693-80819ABD76F5}"/>
+    <hyperlink ref="H121" r:id="rId26" xr:uid="{59B142C5-A47B-4637-88C9-46453ACA146E}"/>
+    <hyperlink ref="H122" r:id="rId27" xr:uid="{3B48E5F2-F09A-4507-B1B3-A8F1A14667EC}"/>
+    <hyperlink ref="H123" r:id="rId28" xr:uid="{33B245B1-95BA-4B44-98E2-D06C6801FCB9}"/>
+    <hyperlink ref="H124" r:id="rId29" xr:uid="{E0478C0A-6127-4787-AFAC-94B029CDF550}"/>
+    <hyperlink ref="H125" r:id="rId30" xr:uid="{AAD4C0FB-BF1B-4BCD-9623-2CD0609410D7}"/>
+    <hyperlink ref="H126" r:id="rId31" xr:uid="{7724DC2B-DF42-4F75-B877-9AC31A2A64FC}"/>
+    <hyperlink ref="H127" r:id="rId32" xr:uid="{B225C502-1ECA-4650-883C-6108183DC118}"/>
+    <hyperlink ref="H128" r:id="rId33" xr:uid="{DB921E81-59E7-4138-BCD3-A2D9AFE1F4C0}"/>
+    <hyperlink ref="H132" r:id="rId34" xr:uid="{56999CB0-BC26-4218-951F-B9220BC344A5}"/>
+    <hyperlink ref="H129" r:id="rId35" xr:uid="{3A010B12-CC39-4685-9AA6-A8713BFB692F}"/>
+    <hyperlink ref="H130" r:id="rId36" xr:uid="{D6E0E822-995F-4CD8-BE74-060C5BB702F3}"/>
+    <hyperlink ref="H131" r:id="rId37" xr:uid="{EC7ABD69-56BE-456C-871B-0CD4C15ACC10}"/>
+    <hyperlink ref="H133" r:id="rId38" xr:uid="{12829DC4-DED2-4B4D-A6A2-47C5F91D9D62}"/>
+    <hyperlink ref="H134" r:id="rId39" xr:uid="{93270A33-7612-4349-B1B1-CFA1A9E35096}"/>
+    <hyperlink ref="H135" r:id="rId40" xr:uid="{FA8EB9BB-7DC5-483E-AA2F-829FEA9620D6}"/>
+    <hyperlink ref="H136" r:id="rId41" xr:uid="{EF3C1240-A4A6-4C83-B493-B183853EDEFB}"/>
+    <hyperlink ref="H137" r:id="rId42" xr:uid="{F0FF3961-4E69-458A-A540-EBABBBAD6DF6}"/>
+    <hyperlink ref="H139" r:id="rId43" xr:uid="{0145C501-0737-4484-BBB5-D3ACFC610FAC}"/>
+    <hyperlink ref="H140" r:id="rId44" xr:uid="{AAEB9DFB-7377-493D-A7F1-2D6E10100EA6}"/>
+    <hyperlink ref="H141" r:id="rId45" xr:uid="{B32D527E-D214-4EEF-85C8-E62FF8B4F3A4}"/>
+    <hyperlink ref="H142" r:id="rId46" xr:uid="{4D5C5FFA-6640-465A-8053-395736143555}"/>
+    <hyperlink ref="H143" r:id="rId47" xr:uid="{C11D2A42-CF7B-4D62-988E-7D2EF605C4DB}"/>
+    <hyperlink ref="H144" r:id="rId48" xr:uid="{BA2BF632-F39D-4DC8-8A10-F441FC220D2D}"/>
+    <hyperlink ref="H145" r:id="rId49" xr:uid="{3CB70BD5-FAAF-4C04-AA64-B7F8FDE76697}"/>
+    <hyperlink ref="H146" r:id="rId50" xr:uid="{295C407F-CAA9-48E3-A9A2-4E100FE77FA2}"/>
+    <hyperlink ref="H147" r:id="rId51" xr:uid="{7BA43F3D-37AD-4483-8B7C-DC163082BB37}"/>
+    <hyperlink ref="H148" r:id="rId52" xr:uid="{B2572ABF-3EF1-4C85-B5FB-EBEF967D056A}"/>
+    <hyperlink ref="H149" r:id="rId53" xr:uid="{A0EA61E8-2200-4D90-9556-C7DB804BE000}"/>
+    <hyperlink ref="H150" r:id="rId54" xr:uid="{58500DEB-DE42-442B-81B0-2E1D0D941250}"/>
+    <hyperlink ref="H151" r:id="rId55" xr:uid="{3E422470-D13B-4ADD-81A2-65DE50F22D9F}"/>
+    <hyperlink ref="H152" r:id="rId56" xr:uid="{2FB9A46E-4483-4F9E-B30A-6C85D6782EC8}"/>
+    <hyperlink ref="H153" r:id="rId57" xr:uid="{A6CAFCAD-C7F3-45B5-9DA8-5E41875B254C}"/>
+    <hyperlink ref="H154" r:id="rId58" xr:uid="{627121EA-7AD1-42DF-B2B5-07FE3F0E7AFB}"/>
+    <hyperlink ref="H155" r:id="rId59" xr:uid="{EA2E262E-D08A-4AD5-ABF3-598E104F9C09}"/>
+    <hyperlink ref="H156" r:id="rId60" xr:uid="{4AEA256B-BE3B-4CDB-8EC2-425E0C8F55F1}"/>
+    <hyperlink ref="H157" r:id="rId61" xr:uid="{00AFC3B9-4F43-46BF-937D-DFAC43DBA682}"/>
+    <hyperlink ref="H158" r:id="rId62" xr:uid="{94321CC6-2432-49E5-A556-68B61FB5F937}"/>
+    <hyperlink ref="H159" r:id="rId63" xr:uid="{29BAEF54-81E7-482B-97FB-2DE5159CC1EA}"/>
+    <hyperlink ref="H160" r:id="rId64" xr:uid="{E7EF6DAB-04B0-4012-B051-1AFE742B5CEA}"/>
+    <hyperlink ref="H161" r:id="rId65" xr:uid="{FBA70578-758C-4443-B971-261074AC9F92}"/>
+    <hyperlink ref="H162" r:id="rId66" xr:uid="{33A5AAF5-7DEA-4F6D-BF0F-CC95324FA4D9}"/>
+    <hyperlink ref="H163" r:id="rId67" xr:uid="{9776A9BD-AEAA-46A3-AE04-81296E70FBC9}"/>
+    <hyperlink ref="H164" r:id="rId68" xr:uid="{02AFAE57-B4D1-4811-922A-54AFDB403F0E}"/>
+    <hyperlink ref="H165" r:id="rId69" xr:uid="{C1B1C2AC-E335-4CE5-8F1A-A4D96CCA5308}"/>
+    <hyperlink ref="H166" r:id="rId70" xr:uid="{00114782-F483-4F50-A9E9-FB22C8116EB3}"/>
+    <hyperlink ref="H167" r:id="rId71" xr:uid="{C2E2D3C2-C280-4D26-8BCF-90D84E4EE0A2}"/>
+    <hyperlink ref="H168" r:id="rId72" xr:uid="{9F93BD24-D1F9-485E-8F21-9E88A1E59BA4}"/>
+    <hyperlink ref="H169" r:id="rId73" xr:uid="{1C5FF59F-2006-4CF4-9F22-68FBD9B31297}"/>
+    <hyperlink ref="H170" r:id="rId74" xr:uid="{C0E0B4B3-0DF1-4E6B-9B1B-A236D06F9887}"/>
+    <hyperlink ref="H171" r:id="rId75" xr:uid="{14B2D385-5D27-4899-A6D9-BF8EAD342619}"/>
+    <hyperlink ref="H172" r:id="rId76" xr:uid="{38B9B1D2-A875-42C9-BE94-534395AACC62}"/>
+    <hyperlink ref="H173" r:id="rId77" xr:uid="{2CA1F4F0-FCA2-4886-B0B9-A7361DA78329}"/>
+    <hyperlink ref="H174" r:id="rId78" xr:uid="{01008C51-500E-4BFF-B9C7-1EEBBCFEAE7B}"/>
+    <hyperlink ref="H175" r:id="rId79" xr:uid="{68E68731-5D6C-4A71-8245-AEBB78A5470F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>